--- a/spec/fixtures/files/duplicate_names.xlsx
+++ b/spec/fixtures/files/duplicate_names.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">message</t>
+    <t xml:space="preserve">label</t>
   </si>
   <si>
     <t xml:space="preserve">select_one male_female</t>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve">list name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
   </si>
   <si>
     <t xml:space="preserve">male_female</t>
@@ -200,7 +197,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,62 +288,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/files/duplicate_names.xlsx
+++ b/spec/fixtures/files/duplicate_names.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,34 +29,37 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one male_female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respondent gender?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respondent age?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How old are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list name</t>
+  </si>
+  <si>
     <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respondent gender?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respondent age?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How old are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list name</t>
   </si>
   <si>
     <t xml:space="preserve">male_female</t>
@@ -197,7 +200,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,62 +291,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
